--- a/resources/Annual_Performance.xlsx
+++ b/resources/Annual_Performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Tiberium\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A448E1-CDCC-4AD3-A04A-A14AA107DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CD5C4-5872-4F4D-BD53-84CFFD265112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{24D75502-3006-41BD-B69F-77633AA99ED6}"/>
+    <workbookView xWindow="5028" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{24D75502-3006-41BD-B69F-77633AA99ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -411,7 +421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591C006A-69E3-4C66-9384-1663E921DD17}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -454,11 +466,11 @@
         <v>4801.6000000000004</v>
       </c>
       <c r="E2" s="1">
-        <v>-251.45</v>
+        <v>-590.70000000000005</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F7" si="0">SUM(E2/D2)*100</f>
-        <v>-5.2367960679773402</v>
+        <v>-12.302149283572144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -475,11 +487,11 @@
         <v>16247.6</v>
       </c>
       <c r="E3" s="1">
-        <v>2391</v>
+        <v>2039</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>14.716019596740439</v>
+        <v>12.549545779068907</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,11 +508,11 @@
         <v>24190.720000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>-16457</v>
+        <v>-16507.349999999999</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>-68.030219852902263</v>
+        <v>-68.238357518916331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -517,11 +529,11 @@
         <v>16580.939999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>8589.9</v>
+        <v>8258.51</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>51.805868666070808</v>
+        <v>49.807248563712314</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -538,26 +550,32 @@
         <v>25170.84</v>
       </c>
       <c r="E6" s="1">
-        <v>8500</v>
+        <v>8140.67</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>33.769234558719532</v>
+        <v>32.341669964133104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
+      <c r="B7">
+        <v>7.84</v>
+      </c>
+      <c r="C7" s="4">
+        <v>24.8</v>
+      </c>
       <c r="D7" s="1">
         <v>33570.839999999997</v>
       </c>
       <c r="E7" s="2">
-        <v>10025</v>
+        <v>15006</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>29.862225669658553</v>
+        <v>44.699507072209101</v>
       </c>
     </row>
   </sheetData>
